--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3676.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3676.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.137115396367696</v>
+        <v>5.302699565887451</v>
       </c>
       <c r="B1">
-        <v>1.686746025616533</v>
+        <v>4.221007347106934</v>
       </c>
       <c r="C1">
-        <v>3.513995899081877</v>
+        <v>2.712152242660522</v>
       </c>
       <c r="D1">
-        <v>6.297429760772598</v>
+        <v>1.889561295509338</v>
       </c>
       <c r="E1">
-        <v>1.432462114040808</v>
+        <v>1.199711322784424</v>
       </c>
     </row>
   </sheetData>
